--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="Bgm" sheetId="1" r:id="rId1"/>
+    <sheet name="Se" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -25,13 +25,22 @@
     <t>FileName</t>
   </si>
   <si>
-    <t>Loop</t>
-  </si>
-  <si>
     <t>DECIDE</t>
   </si>
   <si>
-    <t>Silent-Avalon</t>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>CURSOR</t>
+  </si>
+  <si>
+    <t>cursor</t>
   </si>
 </sst>
 </file>
@@ -39,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,67 +62,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +153,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -135,35 +185,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,23 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,13 +215,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +359,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +406,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,26 +463,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,30 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,15 +1008,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,22 +1026,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,9 +62,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,13 +152,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -93,21 +161,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -116,21 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -139,68 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,45 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,15 +424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -483,6 +435,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +476,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>cursor</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>DEFEAT</t>
+  </si>
+  <si>
+    <t>defeat</t>
   </si>
 </sst>
 </file>
@@ -50,8 +62,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +74,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -76,38 +179,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,91 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,13 +227,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,31 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,133 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,35 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,15 +452,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +471,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,6 +509,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,145 +526,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1058,6 +1070,28 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>FileName</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>DECIDE</t>
@@ -76,30 +82,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,45 +172,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,28 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -187,34 +202,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,13 +233,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,115 +383,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +424,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,22 +451,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,9 +516,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,7 +532,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,7 +541,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,127 +550,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,15 +1026,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,60 +1044,96 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -37,10 +37,16 @@
     <t>decide</t>
   </si>
   <si>
+    <t>makerのCrossbow</t>
+  </si>
+  <si>
     <t>CANCEL</t>
   </si>
   <si>
     <t>cancel</t>
+  </si>
+  <si>
+    <t>makerのCursor1</t>
   </si>
   <si>
     <t>CURSOR</t>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,7 +87,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -102,6 +108,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -110,13 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -127,7 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,18 +193,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,181 +245,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +472,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -494,22 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,142 +541,142 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1051,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1062,44 +1068,53 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1107,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1124,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>defeat</t>
+  </si>
+  <si>
+    <t>DEMIGOD</t>
+  </si>
+  <si>
+    <t>demigod</t>
   </si>
 </sst>
 </file>
@@ -66,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +87,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -91,6 +119,68 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,7 +193,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -111,22 +209,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,91 +224,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,73 +239,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,109 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,29 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -491,21 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +492,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,16 +538,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,127 +556,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1133,6 +1139,23 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -34,15 +34,12 @@
     <t>DECIDE</t>
   </si>
   <si>
-    <t>decide</t>
+    <t>decide7</t>
   </si>
   <si>
     <t>CANCEL</t>
   </si>
   <si>
-    <t>cancel</t>
-  </si>
-  <si>
     <t>CURSOR</t>
   </si>
   <si>
@@ -65,6 +62,30 @@
   </si>
   <si>
     <t>demigod</t>
+  </si>
+  <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>beap3</t>
+  </si>
+  <si>
+    <t>LEVELUP</t>
+  </si>
+  <si>
+    <t>itemget1</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>Sword2</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>Skill1</t>
   </si>
 </sst>
 </file>
@@ -72,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,7 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -115,52 +144,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -176,6 +160,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -184,6 +191,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -192,9 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,29 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +260,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,13 +284,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +356,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,61 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,79 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +519,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -520,13 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,145 +559,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,13 +1053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1082,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1096,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1113,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1130,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1147,15 +1168,83 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -61,31 +61,37 @@
     <t>DEMIGOD</t>
   </si>
   <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>beap3</t>
+  </si>
+  <si>
+    <t>LEVELUP</t>
+  </si>
+  <si>
+    <t>itemget1</t>
+  </si>
+  <si>
+    <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>Sword2</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>AWAKEN</t>
+  </si>
+  <si>
     <t>demigod</t>
-  </si>
-  <si>
-    <t>DENY</t>
-  </si>
-  <si>
-    <t>beap3</t>
-  </si>
-  <si>
-    <t>LEVELUP</t>
-  </si>
-  <si>
-    <t>itemget1</t>
-  </si>
-  <si>
-    <t>CRITICAL</t>
-  </si>
-  <si>
-    <t>Sword2</t>
-  </si>
-  <si>
-    <t>SKILL</t>
-  </si>
-  <si>
-    <t>Skill1</t>
   </si>
 </sst>
 </file>
@@ -93,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -108,24 +114,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,14 +180,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -160,24 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,28 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -227,29 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,25 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,157 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,21 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +471,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +507,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,11 +527,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +553,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,145 +565,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,13 +1059,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1140,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1174,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1242,9 +1251,26 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -73,7 +73,7 @@
     <t>LEVELUP</t>
   </si>
   <si>
-    <t>itemget1</t>
+    <t>decide43</t>
   </si>
   <si>
     <t>CRITICAL</t>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>demigod</t>
+  </si>
+  <si>
+    <t>COUNTUP</t>
+  </si>
+  <si>
+    <t>messagedisplay1</t>
   </si>
 </sst>
 </file>
@@ -99,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -127,16 +133,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,75 +174,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,9 +187,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,21 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,6 +272,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,175 +404,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,16 +481,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -507,11 +522,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,39 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,15 +571,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,127 +589,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1274,6 +1280,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -43,7 +43,7 @@
     <t>CURSOR</t>
   </si>
   <si>
-    <t>cursor</t>
+    <t>cursor_move8</t>
   </si>
   <si>
     <t>DAMAGE</t>
@@ -107,8 +107,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,21 +120,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -142,9 +195,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,110 +233,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,30 +492,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,19 +514,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,9 +555,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,145 +571,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -98,6 +98,30 @@
   </si>
   <si>
     <t>messagedisplay1</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>Up1</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>power10</t>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+  </si>
+  <si>
+    <t>power36</t>
   </si>
 </sst>
 </file>
@@ -107,8 +131,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,38 +144,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,41 +196,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +219,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,10 +257,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,36 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,19 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,21 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +501,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,24 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,13 +564,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,145 +595,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1297,6 +1321,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -61,7 +61,7 @@
     <t>DEMIGOD</t>
   </si>
   <si>
-    <t>Skill2</t>
+    <t>swordspecial</t>
   </si>
   <si>
     <t>DENY</t>
@@ -115,13 +115,16 @@
     <t>BUFF</t>
   </si>
   <si>
-    <t>power10</t>
+    <t>Sword1</t>
   </si>
   <si>
     <t>DEBUFF</t>
   </si>
   <si>
     <t>power36</t>
+  </si>
+  <si>
+    <t>BATTLESTART</t>
   </si>
 </sst>
 </file>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +146,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -150,7 +183,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -158,15 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,30 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,80 +268,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,19 +299,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,163 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,21 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,7 +508,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,7 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,145 +598,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1332,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1386,6 +1389,23 @@
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>BATTLESTART</t>
+  </si>
+  <si>
+    <t>LEARNSKILL</t>
+  </si>
+  <si>
+    <t>Flash2</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,24 +152,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,30 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,56 +234,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,16 +258,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,181 +311,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,20 +501,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,11 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,22 +581,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,145 +604,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1182,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1199,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1369,7 +1375,7 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1386,7 +1392,7 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1406,6 +1412,23 @@
         <v>0.8</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Flash2</t>
+  </si>
+  <si>
+    <t>CURSOR_MOVE</t>
+  </si>
+  <si>
+    <t>cursor</t>
   </si>
 </sst>
 </file>
@@ -139,8 +145,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -152,6 +158,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -159,22 +239,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,68 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -258,39 +271,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,31 +311,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,49 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,97 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,11 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -547,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +570,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,7 +610,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,136 +619,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,15 +1104,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1429,6 +1436,23 @@
         <v>0.8</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/SE.xlsx
+++ b/Assets/Data/SE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>cursor</t>
+  </si>
+  <si>
+    <t>PLAYSTART</t>
+  </si>
+  <si>
+    <t>gamestart</t>
   </si>
 </sst>
 </file>
@@ -144,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -160,28 +166,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,15 +226,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +253,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,34 +276,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,30 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +317,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,169 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,17 +511,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +555,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -574,31 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +616,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,127 +634,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1456,6 +1462,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
